--- a/BigMatrix_Dantas&Fonseca2023.xlsx
+++ b/BigMatrix_Dantas&Fonseca2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Cliente Preferencial\Documents\03_Doutorado\Tese\02_Projeto_CDI\Re-Submissão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2882EBFE-E181-426E-B965-83F34471E8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BEB6276-DC9C-4E37-B76B-2321135AB439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{535667D9-C85A-4777-A3DD-76662D401C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{535667D9-C85A-4777-A3DD-76662D401C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Refs_information" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Species_classification" sheetId="2" r:id="rId3"/>
     <sheet name="Valid_species" sheetId="10" r:id="rId4"/>
     <sheet name="Genus_classification" sheetId="7" r:id="rId5"/>
-    <sheet name="Change_In_ForestCover" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Species_classification!$A$1:$F$967</definedName>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7312" uniqueCount="2188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7268" uniqueCount="2182">
   <si>
     <t>Code_site</t>
   </si>
@@ -8615,24 +8614,6 @@
     <t>hand collection, Pitfall trap and Winkler</t>
   </si>
   <si>
-    <t>Forest_1999</t>
-  </si>
-  <si>
-    <t>Forest_2020</t>
-  </si>
-  <si>
-    <t>Mean tempora change in natural cover</t>
-  </si>
-  <si>
-    <t>HabitatLoss_2020</t>
-  </si>
-  <si>
-    <t>HabitatLoss_1999</t>
-  </si>
-  <si>
-    <t>Temporal change_ForestCover</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
 </sst>
@@ -8640,7 +8621,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8726,32 +8707,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -8787,12 +8749,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8822,17 +8783,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9144,10 +9098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5FF09B-8C39-4816-AD4E-C8E4920C850E}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9168,8 +9122,8 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>2187</v>
+      <c r="D1" s="1" t="s">
+        <v>2181</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>66</v>
@@ -9520,133 +9474,133 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" s="4">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" s="4">
         <v>2010</v>
@@ -9655,112 +9609,112 @@
         <v>67</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D26" s="4">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" s="4">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D29" s="4">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D30" s="4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>61</v>
@@ -9780,13 +9734,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D32" s="4">
         <v>2003</v>
@@ -9795,18 +9749,18 @@
         <v>67</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4">
         <v>2003</v>
@@ -9815,32 +9769,12 @@
         <v>67</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2003</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="16" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
-    <sortCondition ref="A2:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F33">
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://periodicos.ufjf.br/index.php/zoociencias/article/view/24511" xr:uid="{0FD7FE7C-E0FD-447D-B9AA-E1CFF74A2010}"/>
@@ -9860,22 +9794,21 @@
     <hyperlink ref="F16" r:id="rId15" display="https://www.scielo.br/j/paz/a/CQY3hCXNpCCZ3cFHQMLrf6Q/?format=html&amp;lang=en" xr:uid="{8F5F6C33-FA0A-42B4-AA5D-B13AD325810D}"/>
     <hyperlink ref="F17" r:id="rId16" display="https://dialnet.unirioja.es/servlet/articulo?codigo=7448678" xr:uid="{ADD0432F-ECB9-4031-94B5-EE439EC7C9E6}"/>
     <hyperlink ref="F18" r:id="rId17" display="https://www.scielo.sa.cr/scielo.php?script=sci_arttext&amp;pid=S0034-77442005000100016" xr:uid="{01C377F5-A763-4B45-831F-FD854A8F38DF}"/>
-    <hyperlink ref="F19" r:id="rId18" display="https://www.scielo.sa.cr/scielo.php?script=sci_arttext&amp;pid=S0034-77442005000100016" xr:uid="{8DCFA19B-DED5-4666-8D97-B57E326330C4}"/>
-    <hyperlink ref="F20" r:id="rId19" display="https://periodicos.uefs.br/index.php/sociobiology/article/view/909" xr:uid="{14D7D2A9-D541-49D8-BA34-130DBAD13456}"/>
-    <hyperlink ref="F21" r:id="rId20" display="https://www.researchgate.net/profile/Inara-Leal/publication/289672071_Diversidade_de_formigas_em_diferentes_unidades_de_paisagem_da_Caatinga/links/5691324408ae0f920dcb668a/Diversidade-de-formigas-em-diferentes-unidades-de-paisagem-da-Caatinga.pdf" xr:uid="{7B97663F-DF67-4010-9369-D268BEEDC07A}"/>
-    <hyperlink ref="F23" r:id="rId21" display="https://www.researchgate.net/profile/Inara-Leal/publication/289672071_Diversidade_de_formigas_em_diferentes_unidades_de_paisagem_da_Caatinga/links/5691324408ae0f920dcb668a/Diversidade-de-formigas-em-diferentes-unidades-de-paisagem-da-Caatinga.pdf" xr:uid="{0B3F2398-C0DD-4F77-B07F-AD8E806D98FB}"/>
-    <hyperlink ref="F27" r:id="rId22" display="https://www.researchgate.net/profile/Inara-Leal/publication/289672071_Diversidade_de_formigas_em_diferentes_unidades_de_paisagem_da_Caatinga/links/5691324408ae0f920dcb668a/Diversidade-de-formigas-em-diferentes-unidades-de-paisagem-da-Caatinga.pdf" xr:uid="{681E6FA6-99B8-438E-ABB8-FA67C93AB931}"/>
-    <hyperlink ref="F30" r:id="rId23" display="https://www.researchgate.net/profile/Inara-Leal/publication/289672071_Diversidade_de_formigas_em_diferentes_unidades_de_paisagem_da_Caatinga/links/5691324408ae0f920dcb668a/Diversidade-de-formigas-em-diferentes-unidades-de-paisagem-da-Caatinga.pdf" xr:uid="{52464CD9-88DA-4DAB-A5E1-E1842D64ACF1}"/>
-    <hyperlink ref="F22" r:id="rId24" display="https://ri.ufs.br/handle/riufs/4437" xr:uid="{A39824A4-2F20-43F4-A5F0-5C491C5A60C1}"/>
-    <hyperlink ref="F24" r:id="rId25" display="https://link.springer.com/article/10.1007/s11829-017-9563-z" xr:uid="{F794E52D-710E-47DB-B3F2-909EC6FA7AF2}"/>
-    <hyperlink ref="F25" r:id="rId26" display="https://periodicos.uefs.br/index.php/sociobiology/article/view/512" xr:uid="{F912EB43-ECD6-4DD1-A69B-A7804E30E403}"/>
-    <hyperlink ref="F26" r:id="rId27" display="https://ojs3.uefs.br/index.php/sociobiology/article/view/885" xr:uid="{7C82656B-36BE-4A27-8E99-A0CE5B88282A}"/>
-    <hyperlink ref="F28" r:id="rId28" display="https://www.sciencedirect.com/science/article/pii/S0048969718307927" xr:uid="{35B6680E-832F-493F-9051-9A51574D34CB}"/>
-    <hyperlink ref="F29" r:id="rId29" display="https://ojs3.uefs.br/index.php/sociobiology/article/view/1171" xr:uid="{2D0F6481-7B99-4543-BED4-AC6313C3E012}"/>
-    <hyperlink ref="F31" r:id="rId30" display="https://periodicos.uefs.br/index.php/sitientibusBiologia/article/view/8196" xr:uid="{241C33D1-D29C-47C5-A514-C9FC0911A9C1}"/>
-    <hyperlink ref="F32" r:id="rId31" display="https://periodicos.uefs.br/index.php/sitientibusBiologia/article/view/8196" xr:uid="{5855686C-E852-4470-B546-C011DCBB0A1E}"/>
-    <hyperlink ref="F34" r:id="rId32" display="https://periodicos.uefs.br/index.php/sitientibusBiologia/article/view/8196" xr:uid="{B4992F03-9490-4FA3-8669-EA12F489D235}"/>
-    <hyperlink ref="F33" r:id="rId33" display="https://periodicos.uefs.br/index.php/sitientibus/article/view/9389" xr:uid="{33299494-49B5-43F8-A9E8-5E15431E9CF1}"/>
+    <hyperlink ref="F19" r:id="rId18" display="https://periodicos.uefs.br/index.php/sociobiology/article/view/909" xr:uid="{14D7D2A9-D541-49D8-BA34-130DBAD13456}"/>
+    <hyperlink ref="F20" r:id="rId19" display="https://www.researchgate.net/profile/Inara-Leal/publication/289672071_Diversidade_de_formigas_em_diferentes_unidades_de_paisagem_da_Caatinga/links/5691324408ae0f920dcb668a/Diversidade-de-formigas-em-diferentes-unidades-de-paisagem-da-Caatinga.pdf" xr:uid="{7B97663F-DF67-4010-9369-D268BEEDC07A}"/>
+    <hyperlink ref="F22" r:id="rId20" display="https://www.researchgate.net/profile/Inara-Leal/publication/289672071_Diversidade_de_formigas_em_diferentes_unidades_de_paisagem_da_Caatinga/links/5691324408ae0f920dcb668a/Diversidade-de-formigas-em-diferentes-unidades-de-paisagem-da-Caatinga.pdf" xr:uid="{0B3F2398-C0DD-4F77-B07F-AD8E806D98FB}"/>
+    <hyperlink ref="F26" r:id="rId21" display="https://www.researchgate.net/profile/Inara-Leal/publication/289672071_Diversidade_de_formigas_em_diferentes_unidades_de_paisagem_da_Caatinga/links/5691324408ae0f920dcb668a/Diversidade-de-formigas-em-diferentes-unidades-de-paisagem-da-Caatinga.pdf" xr:uid="{681E6FA6-99B8-438E-ABB8-FA67C93AB931}"/>
+    <hyperlink ref="F29" r:id="rId22" display="https://www.researchgate.net/profile/Inara-Leal/publication/289672071_Diversidade_de_formigas_em_diferentes_unidades_de_paisagem_da_Caatinga/links/5691324408ae0f920dcb668a/Diversidade-de-formigas-em-diferentes-unidades-de-paisagem-da-Caatinga.pdf" xr:uid="{52464CD9-88DA-4DAB-A5E1-E1842D64ACF1}"/>
+    <hyperlink ref="F21" r:id="rId23" display="https://ri.ufs.br/handle/riufs/4437" xr:uid="{A39824A4-2F20-43F4-A5F0-5C491C5A60C1}"/>
+    <hyperlink ref="F23" r:id="rId24" display="https://link.springer.com/article/10.1007/s11829-017-9563-z" xr:uid="{F794E52D-710E-47DB-B3F2-909EC6FA7AF2}"/>
+    <hyperlink ref="F24" r:id="rId25" display="https://periodicos.uefs.br/index.php/sociobiology/article/view/512" xr:uid="{F912EB43-ECD6-4DD1-A69B-A7804E30E403}"/>
+    <hyperlink ref="F25" r:id="rId26" display="https://ojs3.uefs.br/index.php/sociobiology/article/view/885" xr:uid="{7C82656B-36BE-4A27-8E99-A0CE5B88282A}"/>
+    <hyperlink ref="F27" r:id="rId27" display="https://www.sciencedirect.com/science/article/pii/S0048969718307927" xr:uid="{35B6680E-832F-493F-9051-9A51574D34CB}"/>
+    <hyperlink ref="F28" r:id="rId28" display="https://ojs3.uefs.br/index.php/sociobiology/article/view/1171" xr:uid="{2D0F6481-7B99-4543-BED4-AC6313C3E012}"/>
+    <hyperlink ref="F30" r:id="rId29" display="https://periodicos.uefs.br/index.php/sitientibusBiologia/article/view/8196" xr:uid="{241C33D1-D29C-47C5-A514-C9FC0911A9C1}"/>
+    <hyperlink ref="F31" r:id="rId30" display="https://periodicos.uefs.br/index.php/sitientibusBiologia/article/view/8196" xr:uid="{5855686C-E852-4470-B546-C011DCBB0A1E}"/>
+    <hyperlink ref="F33" r:id="rId31" display="https://periodicos.uefs.br/index.php/sitientibusBiologia/article/view/8196" xr:uid="{B4992F03-9490-4FA3-8669-EA12F489D235}"/>
+    <hyperlink ref="F32" r:id="rId32" display="https://periodicos.uefs.br/index.php/sitientibus/article/view/9389" xr:uid="{33299494-49B5-43F8-A9E8-5E15431E9CF1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -9886,7 +9819,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35454,7 +35387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6187CEDB-FAF6-4862-BB0D-226CB7FEE974}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -36307,694 +36240,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9210A744-894B-4391-9FA0-0011772B7768}">
-  <dimension ref="A1:F34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>2181</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2182</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>2185</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>2184</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="20">
-        <v>0.79525483304042177</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0.43614528400000002</v>
-      </c>
-      <c r="D2" s="20">
-        <v>0.20474516695957823</v>
-      </c>
-      <c r="E2" s="20">
-        <v>0.56385471600000003</v>
-      </c>
-      <c r="F2" s="21">
-        <v>-0.35910954904042175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="20">
-        <v>0.51672535211267601</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0.599178404</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0.48327464788732399</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0.400821596</v>
-      </c>
-      <c r="F3" s="21">
-        <v>8.2453051887323991E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="20">
-        <v>0.680756724800473</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0.71888856000000001</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0.319243275199527</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0.28111143999999999</v>
-      </c>
-      <c r="F4" s="21">
-        <v>3.8131835199527009E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="20">
-        <v>0.58468814661543012</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.34111735100000001</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0.41531185338456988</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0.65888264899999993</v>
-      </c>
-      <c r="F5" s="21">
-        <v>-0.2435707956154301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="20">
-        <v>0.71842953413419275</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0.75564019900000001</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0.28157046586580725</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0.24435980099999999</v>
-      </c>
-      <c r="F6" s="21">
-        <v>3.7210664865807264E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="20">
-        <v>0.85131195335276966</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0.74635568500000005</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0.14868804664723034</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0.25364431499999995</v>
-      </c>
-      <c r="F7" s="21">
-        <v>-0.10495626835276961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="20">
-        <v>0.79289071680376033</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0.72502937700000003</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0.20710928319623967</v>
-      </c>
-      <c r="E8" s="20">
-        <v>0.27497062299999997</v>
-      </c>
-      <c r="F8" s="21">
-        <v>-6.7861339803760301E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="20">
-        <v>0.35041716328963052</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0.53069129900000001</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0.64958283671036954</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0.46930870099999999</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0.18027413571036949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="20">
-        <v>0.70128703980844054</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0.36545944299999999</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0.29871296019155946</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0.63454055700000001</v>
-      </c>
-      <c r="F10" s="21">
-        <v>-0.33582759680844054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="20">
-        <v>0.99758818209225208</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.99608079599999999</v>
-      </c>
-      <c r="D11" s="20">
-        <v>2.4118179077479152E-3</v>
-      </c>
-      <c r="E11" s="20">
-        <v>3.9192040000000095E-3</v>
-      </c>
-      <c r="F11" s="21">
-        <v>-1.5073860922520943E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="20">
-        <v>0.69237668161434973</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0.86158445400000006</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.30762331838565027</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0.13841554599999994</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.16920777238565032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="20">
-        <v>0.99795680093403383</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.99591360200000001</v>
-      </c>
-      <c r="D13" s="20">
-        <v>2.0431990659661725E-3</v>
-      </c>
-      <c r="E13" s="20">
-        <v>4.0863979999999911E-3</v>
-      </c>
-      <c r="F13" s="21">
-        <v>-2.0431989340338186E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20">
-        <v>1</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="20">
-        <v>0.99795680093403383</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0.99591360200000001</v>
-      </c>
-      <c r="D15" s="20">
-        <v>2.0431990659661725E-3</v>
-      </c>
-      <c r="E15" s="20">
-        <v>4.0863979999999911E-3</v>
-      </c>
-      <c r="F15" s="21">
-        <v>-2.0431989340338186E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="20">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20">
-        <v>1</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="20">
-        <v>0.1899179366940211</v>
-      </c>
-      <c r="C17" s="20">
-        <v>0.220398593</v>
-      </c>
-      <c r="D17" s="20">
-        <v>0.81008206330597887</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0.77960140700000002</v>
-      </c>
-      <c r="F17" s="21">
-        <v>3.0480656305978904E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="20">
-        <v>0.84350364963503655</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0.65518248199999995</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0.15649635036496345</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0.34481751800000005</v>
-      </c>
-      <c r="F18" s="21">
-        <v>-0.18832116763503659</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="20">
-        <v>2.669039145907473E-2</v>
-      </c>
-      <c r="C19" s="20">
-        <v>9.1933569999999992E-3</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0.9733096085409253</v>
-      </c>
-      <c r="E19" s="20">
-        <v>0.99080664299999999</v>
-      </c>
-      <c r="F19" s="21">
-        <v>-1.7497034459074731E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="20">
-        <v>0.67728613569321539</v>
-      </c>
-      <c r="C20" s="20">
-        <v>0.208259587</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0.32271386430678461</v>
-      </c>
-      <c r="E20" s="20">
-        <v>0.79174041299999998</v>
-      </c>
-      <c r="F20" s="21">
-        <v>-0.46902654869321536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="20">
-        <v>0.48242245199409162</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0.207976366</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0.51757754800590838</v>
-      </c>
-      <c r="E21" s="20">
-        <v>0.79202363399999998</v>
-      </c>
-      <c r="F21" s="21">
-        <v>-0.27444608599409159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="20">
-        <v>0.72452606635071093</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0.108708531</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0.27547393364928907</v>
-      </c>
-      <c r="E22" s="20">
-        <v>0.891291469</v>
-      </c>
-      <c r="F22" s="21">
-        <v>-0.61581753535071093</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="20">
-        <v>0.49387511204063339</v>
-      </c>
-      <c r="C23" s="20">
-        <v>0.53689871499999997</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0.50612488795936661</v>
-      </c>
-      <c r="E23" s="20">
-        <v>0.46310128500000003</v>
-      </c>
-      <c r="F23" s="21">
-        <v>4.302360295936658E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="20">
-        <v>0.93235117257967526</v>
-      </c>
-      <c r="C24" s="20">
-        <v>0.95550210499999999</v>
-      </c>
-      <c r="D24" s="20">
-        <v>6.7648827420324742E-2</v>
-      </c>
-      <c r="E24" s="20">
-        <v>4.449789500000001E-2</v>
-      </c>
-      <c r="F24" s="21">
-        <v>2.3150932420324732E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="20">
-        <v>0.92607003891050588</v>
-      </c>
-      <c r="C25" s="20">
-        <v>0.791679138</v>
-      </c>
-      <c r="D25" s="20">
-        <v>7.3929961089494123E-2</v>
-      </c>
-      <c r="E25" s="20">
-        <v>0.208320862</v>
-      </c>
-      <c r="F25" s="21">
-        <v>-0.13439090091050587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="20">
-        <v>0.39020070838252657</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0.20011806400000001</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0.60979929161747348</v>
-      </c>
-      <c r="E26" s="20">
-        <v>0.79988193600000002</v>
-      </c>
-      <c r="F26" s="21">
-        <v>-0.19008264438252656</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="20">
-        <v>1</v>
-      </c>
-      <c r="C27" s="20">
-        <v>1</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0</v>
-      </c>
-      <c r="E27" s="20">
-        <v>0</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="20">
-        <v>0.97541966426858517</v>
-      </c>
-      <c r="C28" s="20">
-        <v>0.98201438799999996</v>
-      </c>
-      <c r="D28" s="20">
-        <v>2.4580335731414826E-2</v>
-      </c>
-      <c r="E28" s="20">
-        <v>1.798561200000004E-2</v>
-      </c>
-      <c r="F28" s="21">
-        <v>6.5947237314147866E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="20">
-        <v>0.81396036675539785</v>
-      </c>
-      <c r="C29" s="20">
-        <v>0.264123041</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0.18603963324460215</v>
-      </c>
-      <c r="E29" s="20">
-        <v>0.73587695900000005</v>
-      </c>
-      <c r="F29" s="21">
-        <v>-0.5498373257553979</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="20">
-        <v>0.8311959439308082</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0.73367133900000003</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0.1688040560691918</v>
-      </c>
-      <c r="E30" s="20">
-        <v>0.26632866099999997</v>
-      </c>
-      <c r="F30" s="21">
-        <v>-9.7524604930808168E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="20">
-        <v>0.36238805970149252</v>
-      </c>
-      <c r="C31" s="20">
-        <v>0.154626866</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0.63761194029850743</v>
-      </c>
-      <c r="E31" s="20">
-        <v>0.84537313400000003</v>
-      </c>
-      <c r="F31" s="21">
-        <v>-0.20776119370149251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="20">
-        <v>0.96818727490996404</v>
-      </c>
-      <c r="C32" s="20">
-        <v>0.97719087599999999</v>
-      </c>
-      <c r="D32" s="20">
-        <v>3.1812725090035965E-2</v>
-      </c>
-      <c r="E32" s="20">
-        <v>2.2809124000000014E-2</v>
-      </c>
-      <c r="F32" s="21">
-        <v>9.0036010900359509E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="20">
-        <v>0.1899791231732777</v>
-      </c>
-      <c r="C33" s="20">
-        <v>9.9314047000000003E-2</v>
-      </c>
-      <c r="D33" s="20">
-        <v>0.8100208768267223</v>
-      </c>
-      <c r="E33" s="20">
-        <v>0.90068595299999998</v>
-      </c>
-      <c r="F33" s="21">
-        <v>-9.0665076173277695E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22" t="s">
-        <v>2183</v>
-      </c>
-      <c r="F34" s="23">
-        <v>-0.10414870234410878</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>